--- a/EDR_Report/bin/Debug/net6.0/Report/edr1bb101.xlsx
+++ b/EDR_Report/bin/Debug/net6.0/Report/edr1bb101.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\edr-report\EDR_Report\Report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\226178\Desktop\GitHub\edr-report\EDR_Report\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86504FE2-2F24-40D4-8232-C42590CC9B41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A2A0C0-B717-43BD-9851-EC6D82E56BF7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6080" xr2:uid="{85AC8DA4-BE31-4FBD-822C-3DB2757B3E3F}"/>
   </bookViews>
@@ -139,10 +139,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>三、主要出入人數、機具及材料使用情形：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>人工</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -251,67 +247,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$vday_sub_num$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>$spread_day_num$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>$man_col3$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$machine_col1$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$material_col2$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$co_col3$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$co_col4$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$calendar_date_weekday$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三、主要出工人數、機具及材料使用情形：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$machine_col3_1d$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$material_col6_1d$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$co_col6_3d$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$man_col2_zerospace$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$machine_col2_1d_zerospace$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$material_col5_1d_zerospace$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$co_col5_3d_zerospace$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>$man_col1$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$man_col2$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$man_col3$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$machine_col1$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$machine_col2$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$machine_col3$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$material_col2$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$material_col5$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$material_col6$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$co_col3$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$co_col4$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$co_col5$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$co_col6$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$calendar_date_weekday$</t>
+    <t>$vday_sub_num_spread$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -319,8 +319,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.000%"/>
+    <numFmt numFmtId="177" formatCode="#,##0.0;[Red]#,##0.0"/>
+    <numFmt numFmtId="178" formatCode="#,##0.000;[Red]#,##0.000"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -679,7 +681,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -728,126 +730,129 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -857,6 +862,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -940,6 +951,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1260,8 +1280,8 @@
   </sheetPr>
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:M15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -1280,45 +1300,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="34" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
     </row>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
     </row>
     <row r="3" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1329,92 +1349,92 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="82" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="83"/>
+      <c r="I4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="79" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="80"/>
-      <c r="I4" s="79" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="79" t="s">
-        <v>71</v>
-      </c>
-      <c r="M4" s="80"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="82" t="s">
+        <v>61</v>
+      </c>
+      <c r="M4" s="83"/>
     </row>
     <row r="5" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="81" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="83" t="s">
+      <c r="B5" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="84"/>
-      <c r="J5" s="81" t="s">
+      <c r="I5" s="87"/>
+      <c r="J5" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="K5" s="82"/>
-      <c r="L5" s="82"/>
-      <c r="M5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="88"/>
     </row>
     <row r="6" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="60"/>
+      <c r="D6" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="25" t="s">
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="26"/>
-      <c r="L6" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="M6" s="86"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="M6" s="89"/>
     </row>
     <row r="7" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="25" t="s">
+      <c r="B7" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="60"/>
+      <c r="D7" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="26"/>
+      <c r="E7" s="60"/>
       <c r="F7" s="10" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>13</v>
@@ -1423,7 +1443,7 @@
         <v>14</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>13</v>
@@ -1431,515 +1451,515 @@
       <c r="K7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="75"/>
-      <c r="M7" s="76"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="79"/>
     </row>
     <row r="8" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="70"/>
+      <c r="D8" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="72" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="73"/>
-      <c r="J8" s="74"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="77"/>
       <c r="K8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="M8" s="69"/>
+      <c r="L8" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="M8" s="72"/>
     </row>
     <row r="9" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="64"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="67"/>
     </row>
     <row r="10" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="58"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="59"/>
       <c r="E10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="26"/>
-      <c r="H10" s="25" t="s">
+      <c r="G10" s="60"/>
+      <c r="H10" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="26"/>
-      <c r="J10" s="25" t="s">
+      <c r="I10" s="60"/>
+      <c r="J10" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="K10" s="26"/>
-      <c r="L10" s="27" t="s">
+      <c r="K10" s="60"/>
+      <c r="L10" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="M10" s="28"/>
+      <c r="M10" s="29"/>
     </row>
     <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="23"/>
+      <c r="H11" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="25"/>
+      <c r="J11" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" s="27"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="29"/>
+    </row>
+    <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="23"/>
+      <c r="H12" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" s="25"/>
+      <c r="J12" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" s="27"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="29"/>
+    </row>
+    <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="23"/>
+      <c r="H13" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" s="25"/>
+      <c r="J13" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="K13" s="27"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="29"/>
+    </row>
+    <row r="14" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="44"/>
+    </row>
+    <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="47"/>
+    </row>
+    <row r="16" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="62"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="64"/>
+    </row>
+    <row r="17" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="66"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="67"/>
+    </row>
+    <row r="18" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="29"/>
+    </row>
+    <row r="19" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="59"/>
+      <c r="C19" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="60"/>
+      <c r="F19" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="60"/>
+      <c r="H19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19" s="59"/>
+      <c r="L19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M19" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="54"/>
+      <c r="C20" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="91" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="91"/>
+      <c r="F20" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="55"/>
+      <c r="H20" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="I20" s="90" t="s">
+        <v>63</v>
+      </c>
+      <c r="J20" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="K20" s="54"/>
+      <c r="L20" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="M20" s="92" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="54"/>
+      <c r="C21" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="91" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="91"/>
+      <c r="F21" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="55"/>
+      <c r="H21" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="I21" s="90" t="s">
+        <v>63</v>
+      </c>
+      <c r="J21" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="K21" s="54"/>
+      <c r="L21" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="M21" s="92" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="44"/>
+    </row>
+    <row r="23" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="47"/>
+    </row>
+    <row r="24" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="39"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="52"/>
+    </row>
+    <row r="25" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="48"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="50"/>
+    </row>
+    <row r="26" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="44"/>
+    </row>
+    <row r="27" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" s="24"/>
-      <c r="H11" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="I11" s="26"/>
-      <c r="J11" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="K11" s="24"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="28"/>
-    </row>
-    <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" s="24"/>
-      <c r="H12" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="I12" s="26"/>
-      <c r="J12" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="K12" s="24"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="28"/>
-    </row>
-    <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" s="24"/>
-      <c r="H13" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="I13" s="26"/>
-      <c r="J13" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="K13" s="24"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="28"/>
-    </row>
-    <row r="14" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="43"/>
-    </row>
-    <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="46"/>
-    </row>
-    <row r="16" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="59"/>
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="61"/>
-    </row>
-    <row r="17" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="62" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="64"/>
-    </row>
-    <row r="18" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="28"/>
-    </row>
-    <row r="19" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="58"/>
-      <c r="C19" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="26"/>
-      <c r="F19" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" s="26"/>
-      <c r="H19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J19" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="K19" s="58"/>
-      <c r="L19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M19" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="53"/>
-      <c r="C20" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" s="54"/>
-      <c r="F20" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="G20" s="54"/>
-      <c r="H20" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="I20" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="J20" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="K20" s="53"/>
-      <c r="L20" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="M20" s="18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="53"/>
-      <c r="C21" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="E21" s="54"/>
-      <c r="F21" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="G21" s="54"/>
-      <c r="H21" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="I21" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="J21" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="K21" s="53"/>
-      <c r="L21" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="M21" s="18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="43"/>
-    </row>
-    <row r="23" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="46"/>
-    </row>
-    <row r="24" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="38"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="51"/>
-    </row>
-    <row r="25" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="47"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="49"/>
-    </row>
-    <row r="26" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="41" t="s">
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="47"/>
+    </row>
+    <row r="28" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="39"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="41"/>
+    </row>
+    <row r="29" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="39"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="41"/>
+    </row>
+    <row r="30" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="43"/>
-    </row>
-    <row r="27" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="45"/>
-      <c r="M27" s="46"/>
-    </row>
-    <row r="28" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="38"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="40"/>
-    </row>
-    <row r="29" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="38"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="40"/>
-    </row>
-    <row r="30" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="31"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="32"/>
     </row>
     <row r="31" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="32"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="34"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="35"/>
     </row>
     <row r="32" spans="1:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="35"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="37"/>
+      <c r="A32" s="36"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="69">
